--- a/URLS  Skill.xlsx
+++ b/URLS  Skill.xlsx
@@ -103,22 +103,63 @@
     <t>http://localhost:8080/WebSkillsGW7/webresources/entis.skill/count</t>
   </si>
   <si>
-    <t>[{"idskill":1,"name":"JSP"},{"idskill":2,"name":"Java"},{"idskill":3,"name":"JavaScript"}]</t>
-  </si>
-  <si>
-    <t>[{"idskill":2,"name":"Java"},{"idskill":3,"name":"JavaScript"}]</t>
-  </si>
-  <si>
-    <t>{"idskill":1,"name":"JSP"}</t>
-  </si>
-  <si>
-    <t>{"name":"C++"}</t>
-  </si>
-  <si>
-    <t>{"idskill":4,"name":"C"}</t>
-  </si>
-  <si>
     <t>http://localhost:8080/WebSkillsGW7/webresources/entis.skill/4</t>
+  </si>
+  <si>
+    <t>{
+   "idskill": 1,
+   "name": "JSP",
+   "level": "Junior,SemiSenior, Senior",
+   "createdate": null,
+   "updatedate": null
+}</t>
+  </si>
+  <si>
+    <t>{
+   "name": "PHP",
+   "level": "Junior,SemiSenior,Senior",
+   "createdate": 1481515200000,
+   "updatedate": 1481515200000
+}</t>
+  </si>
+  <si>
+    <t>{"idskill":4,"name":"C", "createdate": 1481515200000, "updatedate": 1481515200000}</t>
+  </si>
+  <si>
+    <t>[
+      {
+      "idskill": 1,
+      "name": "JSP",
+      "level": "Junior,SemiSenior, Senior",
+      "createdate": null,
+      "updatedate": null
+   },
+      {
+      "idskill": 6,
+      "name": "C++",
+      "level": "Junior,SemiSenior,Senior",
+      "createdate": 1481515200000,
+      "updatedate": 1481515200000
+   }
+]</t>
+  </si>
+  <si>
+    <t>[
+      {
+      "idskill": 3,
+      "name": "JavaScript",
+      "level": "Junior,SemiSenior,Senior",
+      "createdate": null,
+      "updatedate": null
+   },
+      {
+      "idskill": 2,
+      "name": "Java",
+      "level": "Junior,SemiSenior,Senior",
+      "createdate": null,
+      "updatedate": null
+   }
+]</t>
   </si>
 </sst>
 </file>
@@ -506,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +577,7 @@
       <c r="C3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -547,10 +588,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,10 +602,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -575,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,10 +627,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -600,10 +641,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -614,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,7 +669,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
